--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit\Desktop\ISB\Classwork\Foundation Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anirudhyadav/Documents/isb/Term2/Assignments/FP1/ISBG4FP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B930F2-DAA6-43ED-AC34-793B7615ECD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79AFD5-FCA6-1542-91F0-10A3A44C925B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -759,7 +759,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Sharat:
 </t>
@@ -769,7 +769,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Document the file format in which you have the data needed for training the model. 
 </t>
@@ -779,7 +779,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>The comma separated values (CSV) format is the most generic standard.</t>
         </r>
@@ -793,26 +793,26 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sharat:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Features could be defined on different scales and might lead to strong bias when we have features which are of smaller scale and larger scale, hence normalization is required.</t>
         </r>
@@ -826,36 +826,36 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sharat:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The goal of the modeling phase is to craft one or multiple models that meet the objectives and constraints.
 </t>
@@ -865,7 +865,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>The choice of modeling techniques depends on the ML and the business objectives, the data and the industry, demography of project etc.</t>
         </r>
@@ -879,7 +879,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sharat:</t>
         </r>
@@ -2118,7 +2118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Steps</t>
   </si>
@@ -2349,13 +2349,19 @@
   </si>
   <si>
     <t>Sharath</t>
+  </si>
+  <si>
+    <t>Trying to cut down the resume segregation time and looking for corresponding JD discription and expected tech stacks in market to take informed call on resume shortlisting</t>
+  </si>
+  <si>
+    <t>Maximise the clustering based on HDBSCAN and predict resume in line to them</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2413,19 +2419,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2809,22 +2802,22 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="37" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="44.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.88671875" customWidth="1"/>
-    <col min="10" max="10" width="42.44140625" customWidth="1"/>
+    <col min="9" max="9" width="42.83203125" customWidth="1"/>
+    <col min="10" max="10" width="42.5" customWidth="1"/>
     <col min="11" max="11" width="49.6640625" customWidth="1"/>
     <col min="12" max="12" width="37.6640625" customWidth="1"/>
     <col min="13" max="13" width="42.33203125" customWidth="1"/>
@@ -2834,13 +2827,13 @@
     <col min="17" max="17" width="42" customWidth="1"/>
     <col min="18" max="18" width="32" customWidth="1"/>
     <col min="19" max="19" width="37" customWidth="1"/>
-    <col min="20" max="20" width="48.88671875" customWidth="1"/>
+    <col min="20" max="20" width="48.83203125" customWidth="1"/>
     <col min="21" max="21" width="49" customWidth="1"/>
     <col min="22" max="22" width="53" customWidth="1"/>
     <col min="23" max="23" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2846,7 @@
       <c r="D1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -2866,14 +2859,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2890,12 +2882,11 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2912,12 +2903,11 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2934,14 +2924,14 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -2949,456 +2939,462 @@
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>71</v>

--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anirudhyadav/Documents/isb/Term2/Assignments/FP1/ISBG4FP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79AFD5-FCA6-1542-91F0-10A3A44C925B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B846E7-AF36-6644-9CF2-870B23C29D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
   </bookViews>
@@ -2118,7 +2118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Steps</t>
   </si>
@@ -2355,6 +2355,45 @@
   </si>
   <si>
     <t>Maximise the clustering based on HDBSCAN and predict resume in line to them</t>
+  </si>
+  <si>
+    <t>Reducing the time for resume shortlisting on physical resumes and online portals</t>
+  </si>
+  <si>
+    <t>90% efficiency</t>
+  </si>
+  <si>
+    <t>Man hours saved</t>
+  </si>
+  <si>
+    <t>HDBSCAN clustering</t>
+  </si>
+  <si>
+    <t>Possible limitations from the web portals</t>
+  </si>
+  <si>
+    <t>Tech stacks based on JD's for the larger umbrella like JAVA, DEVOPS, DATASCIENTIST,DATABASE</t>
+  </si>
+  <si>
+    <t>Web Scrapping the portals</t>
+  </si>
+  <si>
+    <t>Clustring precision</t>
+  </si>
+  <si>
+    <t>JAVA, DEVOPS, DATASCIENTIST,DATABASE</t>
+  </si>
+  <si>
+    <t>Individual tech stack in above groups</t>
+  </si>
+  <si>
+    <t>Individual tech stack in above groups, and profile skill sets</t>
+  </si>
+  <si>
+    <t>Random tech stacks for individuals</t>
+  </si>
+  <si>
+    <t>removing profiles with less tech stacks</t>
   </si>
 </sst>
 </file>
@@ -2462,7 +2501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2484,6 +2523,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2801,9 +2843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53966E5B-AA82-9441-962B-C80FE447C321}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6:D7"/>
+      <selection pane="topRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2811,7 +2853,7 @@
     <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="37" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.83203125" style="2" customWidth="1"/>
@@ -2843,7 +2885,7 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -2865,7 +2907,6 @@
         <v>3</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2886,7 +2927,6 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2907,7 +2947,6 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2960,11 +2999,14 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
@@ -2973,6 +3015,9 @@
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -2980,6 +3025,9 @@
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -2994,6 +3042,9 @@
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -3001,6 +3052,9 @@
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -3016,112 +3070,136 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D24" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">

--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anirudhyadav/Documents/isb/Term2/Assignments/FP1/ISBG4FP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B846E7-AF36-6644-9CF2-870B23C29D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7ECB-616B-704D-80A5-342A7E7DFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
   </bookViews>
@@ -2118,7 +2118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Steps</t>
   </si>
@@ -2381,19 +2381,43 @@
     <t>Clustring precision</t>
   </si>
   <si>
-    <t>JAVA, DEVOPS, DATASCIENTIST,DATABASE</t>
-  </si>
-  <si>
-    <t>Individual tech stack in above groups</t>
-  </si>
-  <si>
-    <t>Individual tech stack in above groups, and profile skill sets</t>
-  </si>
-  <si>
     <t>Random tech stacks for individuals</t>
   </si>
   <si>
     <t>removing profiles with less tech stacks</t>
+  </si>
+  <si>
+    <t>JAVA, DEVOPS, DATASCIENTIST,DATABASE, Experience</t>
+  </si>
+  <si>
+    <t>Individual tech stack in above groups, and profile skill sets, experience</t>
+  </si>
+  <si>
+    <t>Individual tech stack in above groups and experience</t>
+  </si>
+  <si>
+    <t>Tech Stack distribution along with experience</t>
+  </si>
+  <si>
+    <t>filling in current experience</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>How to categorize any new tech stack</t>
+  </si>
+  <si>
+    <t>how system can handle outliers</t>
+  </si>
+  <si>
+    <t>how easy to add new domains or features</t>
+  </si>
+  <si>
+    <t>as system is compute heavy Dockers will be good</t>
+  </si>
+  <si>
+    <t>accuracy in Resume categorization</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2523,9 +2547,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2843,9 +2864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53966E5B-AA82-9441-962B-C80FE447C321}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D31" sqref="D31"/>
+      <selection pane="topRight" activeCell="D31" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>87</v>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3145,17 +3166,17 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>88</v>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3172,7 +3193,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -3182,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3192,11 +3213,14 @@
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>31</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -3205,225 +3229,249 @@
       <c r="C32" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>64</v>

--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anirudhyadav/Documents/isb/Term2/Assignments/FP1/ISBG4FP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkverma/Desktop/GitHub/ISBG4FP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7ECB-616B-704D-80A5-342A7E7DFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA69EBA-4D16-2A44-AEA2-8AA8AF022072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2118,7 +2115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Steps</t>
   </si>
@@ -2418,6 +2415,66 @@
   </si>
   <si>
     <t>accuracy in Resume categorization</t>
+  </si>
+  <si>
+    <t>Minimize recruitment costs
+Improve hiring efficiency
+Maximize hiring success rate</t>
+  </si>
+  <si>
+    <t>High recruitment cost 
+Inefficient hiring process.</t>
+  </si>
+  <si>
+    <t>Improved hiring efficiency
+Increased hiring success rate
+Improved candidate experience
+Increased employee retention</t>
+  </si>
+  <si>
+    <t>Improved productivity of HRs saving time of hiring
+Reduced Hiring Costs</t>
+  </si>
+  <si>
+    <t>Data Privacy regulations: GDPR</t>
+  </si>
+  <si>
+    <t>Accuracy of the model
+Time take by the model to analyze resumes</t>
+  </si>
+  <si>
+    <t>Model's ability to perform well on data not included in the training set</t>
+  </si>
+  <si>
+    <t>Ability to handle large volumes of data
+Efficiency of deployment(Ease and Cost)
+Maintainability and adaptability</t>
+  </si>
+  <si>
+    <t>Number of Parameters used in the model
+Size and Quality of Training Data
+Architecture of Model</t>
+  </si>
+  <si>
+    <t>Training Time
+Inference Time
+Computational Resources</t>
+  </si>
+  <si>
+    <t>Identify the features that contribute most to the model's predictions</t>
+  </si>
+  <si>
+    <t>Explain why a candidate was not ranked higher by providing alternative scenarios where they would have been preferred.</t>
+  </si>
+  <si>
+    <t>Split the data into training, validation, and testing sets
+Use cross-validation
+Compare with simpler existing models
+Human evaluation</t>
+  </si>
+  <si>
+    <t>Apply transformations like synonym replacement, typos, and noise injection to the test data to simulate real-world variations and assess the model's sensitivity.
+Measure the model's performance across different demographic groups</t>
   </si>
 </sst>
 </file>
@@ -2864,9 +2921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53966E5B-AA82-9441-962B-C80FE447C321}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D31" sqref="D1:D1048576"/>
+      <selection pane="topRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3002,6 +3059,9 @@
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
@@ -3012,6 +3072,9 @@
       <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -3020,7 +3083,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
@@ -3028,6 +3091,9 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
@@ -3040,7 +3106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -3048,6 +3114,9 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -3076,6 +3145,9 @@
       <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -3233,14 +3305,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
@@ -3249,8 +3321,11 @@
       <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
@@ -3259,29 +3334,32 @@
       <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
@@ -3290,8 +3368,11 @@
       <c r="D39" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
@@ -3300,8 +3381,11 @@
       <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
@@ -3310,141 +3394,162 @@
       <c r="D41" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F41" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F42" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F43" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F44" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>61</v>
@@ -3454,14 +3559,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>63</v>
@@ -3471,7 +3576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>64</v>

--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anirudhyadav/Documents/isb/Term2/Assignments/FP1/ISBG4FP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit\Desktop\ISB\Classwork\Foundation Project\ISBG4FP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7ECB-616B-704D-80A5-342A7E7DFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB5A5B3-8E87-4A26-BFBB-E8C88B72A953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2118,7 +2118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t>Steps</t>
   </si>
@@ -2418,6 +2418,81 @@
   </si>
   <si>
     <t>accuracy in Resume categorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimise Recruiting Cost and Improve the Chances of Hiring Candidates who will accept the Job offer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduction in time of HR of Resume shortlistings along with Cost Reduction of hiring platform for Resume Search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Hiring Cost Saved where HR Usually search for the Appropriate Resume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP by Text Analysis and Predictive Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender Bias / Data Breach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git Every set of data will be updated with newer version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Source - Linkedine , Naukri , Data Types,Data Cleaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate Resume Data,Meta Data Like when the last profile updated,Source, Appropriate Labeling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imputing missing values,Cross Checking with Other Portals if possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant to Job Requirement like Payscale,Skillset,Last updated resume date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random profile search to generalise the model fit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing Improper data say payscale vs Years of Exp </t>
+  </si>
+  <si>
+    <t>If Payscale is missing we can impute with mean of numbers by considering the years of exp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how Recent Job changes,certifications,Education etc  </t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1186/s40537-022-00576-5 ,  https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0278237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Analyzing the model is overfit/fit/Underfit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Drift , Handling missing data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear Feature Documentations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross Validation with other portals </t>
+  </si>
+  <si>
+    <t>Linear Regression (Relation ship between Features vs outcome )</t>
+  </si>
+  <si>
+    <t>Split Dataset into 80-20</t>
+  </si>
+  <si>
+    <t>Accuracy of Model</t>
+  </si>
+  <si>
+    <t>Azure Cloud Infrastructure - https://studio.azureml.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Drift as Time passes the Accuracy of model will decrease this can be done on weekly basis by Monitoring the model </t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2547,6 +2622,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2864,23 +2942,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53966E5B-AA82-9441-962B-C80FE447C321}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D31" sqref="D1:D1048576"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="37" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="44.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.83203125" customWidth="1"/>
-    <col min="10" max="10" width="42.5" customWidth="1"/>
+    <col min="9" max="9" width="42.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.44140625" customWidth="1"/>
     <col min="11" max="11" width="49.6640625" customWidth="1"/>
     <col min="12" max="12" width="37.6640625" customWidth="1"/>
     <col min="13" max="13" width="42.33203125" customWidth="1"/>
@@ -2890,13 +2968,13 @@
     <col min="17" max="17" width="42" customWidth="1"/>
     <col min="18" max="18" width="32" customWidth="1"/>
     <col min="19" max="19" width="37" customWidth="1"/>
-    <col min="20" max="20" width="48.83203125" customWidth="1"/>
+    <col min="20" max="20" width="48.77734375" customWidth="1"/>
     <col min="21" max="21" width="49" customWidth="1"/>
     <col min="22" max="22" width="53" customWidth="1"/>
     <col min="23" max="23" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +3000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="10" t="s">
         <v>3</v>
@@ -2944,7 +3022,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2964,7 +3042,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2984,14 +3062,14 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -3002,8 +3080,11 @@
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
@@ -3013,14 +3094,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
@@ -3029,8 +3111,11 @@
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
@@ -3039,8 +3124,11 @@
       <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="G10" s="12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -3049,15 +3137,18 @@
       <c r="D11" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -3066,8 +3157,11 @@
       <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="G13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
@@ -3076,36 +3170,42 @@
       <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
@@ -3114,8 +3214,11 @@
       <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -3124,8 +3227,11 @@
       <c r="D20" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
@@ -3134,22 +3240,25 @@
       <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
@@ -3158,8 +3267,11 @@
       <c r="D24" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
@@ -3168,8 +3280,11 @@
       <c r="D25" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -3179,14 +3294,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
@@ -3195,8 +3310,11 @@
       <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
@@ -3205,15 +3323,18 @@
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G29" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
@@ -3222,8 +3343,11 @@
       <c r="D31" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G31" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
@@ -3233,14 +3357,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
@@ -3249,8 +3373,11 @@
       <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
@@ -3259,29 +3386,35 @@
       <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G35" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G37" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
@@ -3290,8 +3423,11 @@
       <c r="D39" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G39" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
@@ -3300,8 +3436,11 @@
       <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G40" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
@@ -3311,140 +3450,155 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G43" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G45" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G47" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G56" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>61</v>
@@ -3453,15 +3607,21 @@
       <c r="D61" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G61" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="G62" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>63</v>
@@ -3471,56 +3631,59 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G65" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>71</v>

--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkverma/Desktop/GitHub/ISBG4FP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA69EBA-4D16-2A44-AEA2-8AA8AF022072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A37F24F-D852-694E-A670-2EA0230285E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
   </bookViews>
@@ -2115,7 +2115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
   <si>
     <t>Steps</t>
   </si>
@@ -2475,6 +2475,12 @@
   <si>
     <t>Apply transformations like synonym replacement, typos, and noise injection to the test data to simulate real-world variations and assess the model's sensitivity.
 Measure the model's performance across different demographic groups</t>
+  </si>
+  <si>
+    <t>Accuracy of Model n%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documenting version of data whenever there is modification of training data set </t>
   </si>
 </sst>
 </file>
@@ -2921,9 +2927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53966E5B-AA82-9441-962B-C80FE447C321}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3105,6 +3111,9 @@
       <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -3163,21 +3172,24 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
@@ -3187,7 +3199,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -3197,7 +3209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
@@ -3207,21 +3219,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
@@ -3231,7 +3243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
@@ -3241,7 +3253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -3251,14 +3263,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
@@ -3268,7 +3280,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
@@ -3278,14 +3290,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
@@ -3295,7 +3307,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">

--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkverma/Desktop/GitHub/ISBG4FP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPBA\FP1\ISBG4FP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A37F24F-D852-694E-A670-2EA0230285E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,12 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sharat</author>
+    <author>user</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{06F66ECA-4943-43C7-9E0E-B6F067953CD6}">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{D021CF82-86A2-4335-B3FD-721827053571}">
+    <comment ref="E9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This will depend on ML Success criteria
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{51A1C4AF-A38C-4066-86D4-1A1DB6D6F3B8}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +190,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{251B2349-B1E8-4507-9677-F0519889B082}">
+    <comment ref="E11" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+View next sheet
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{08C8C818-90A0-4C60-BE98-3C4388C39BC3}">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{B98146A0-5C05-4D2B-9F98-F93C6BFC175A}">
+    <comment ref="C15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{FFDF790C-FED5-47A6-8063-76C271F23CA8}">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{0574C3D5-904A-428C-BF2D-33864B940197}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{E64756EF-B1D8-46B6-B1F3-99A8848BEFB7}">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{0CA2FD10-BFDF-4496-9939-8C0D09226126}">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{F84D7B80-EB1F-4C6D-B543-F5AFB9B1999B}">
+    <comment ref="C24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{2723BAA8-AEE8-406B-A416-C710B1EE88D1}">
+    <comment ref="C25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{E3C919AA-6B4B-4A5E-B226-14F1CAFD481F}">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{AAEF4399-0612-449E-A14A-94FB6793BD19}">
+    <comment ref="C28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -638,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{DF364A93-546C-4DA5-B69A-C2A0DA788D8B}">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -691,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{7BB6B512-2B95-49BF-9EB2-5FC270218B78}">
+    <comment ref="C31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -724,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{25C32208-A3A8-4073-A038-32DA7589C062}">
+    <comment ref="C32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -748,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{C09540CB-D454-48C7-A873-3AD72CD54C11}">
+    <comment ref="C34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -782,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{7109ABEA-6FF7-4E21-A9EA-9A482DFB85EB}">
+    <comment ref="C35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -815,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{0661FD84-809B-4B4D-8EDF-4B84AD9D1583}">
+    <comment ref="A36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -868,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{AE4E4AE0-DB60-4E24-AFF2-B52E5909158B}">
+    <comment ref="C37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -891,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{96E83A3A-806A-4A2F-AB30-26FBCF49CBB5}">
+    <comment ref="C38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -924,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{7F50088D-F155-444E-BA30-E9D451560DCC}">
+    <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{DC3885E1-D70D-458C-8819-F56B320F23D0}">
+    <comment ref="C40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{9F96D907-8F44-4FB6-AFB2-8326F9684063}">
+    <comment ref="C41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{E0248CD4-6A8F-4E74-B475-46DFF37CBB4C}">
+    <comment ref="C42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{D1CFBBB8-46E7-42AC-B88E-0F6D1FD8D083}">
+    <comment ref="C43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{15BD83D4-4237-4862-AB06-0BE2ABE4E720}">
+    <comment ref="C44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{95A770F2-E37E-4B31-844A-157E5C9394D7}">
+    <comment ref="C45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{FA381433-15D3-4335-A84B-3CEF82288F3D}">
+    <comment ref="C46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1208,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{9B14219B-BE33-4F47-985A-56D1D7B5E273}">
+    <comment ref="C47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{3A5CA891-5899-497F-A586-10AC894BFD8E}">
+    <comment ref="C48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1294,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{6771A0A6-366F-4C62-BB6C-9CDF125BAADA}">
+    <comment ref="C49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1337,31 +1387,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{F4E63CC8-BB5B-494B-825C-8983E8273721}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sharat:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{8D942F21-C825-476A-A520-94D56FFC029E}">
+    <comment ref="C50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1394,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{0DD2CD2F-7908-4618-9D30-0CA4C9FA4F6A}">
+    <comment ref="C52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1427,7 +1477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{F2CAE191-EFB6-4729-B187-EB4F450BF5B2}">
+    <comment ref="C53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{163CAD20-AF24-4D75-AC26-C941F9FC7159}">
+    <comment ref="C54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{2917062A-1EB0-4E8D-8885-21E0FCBECD69}">
+    <comment ref="C56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1538,7 +1588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{B853A22F-FAAC-4824-A2B9-F423D4E6E411}">
+    <comment ref="C57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{2E3B912B-CE4D-4B4B-8F69-6505D2BDEB77}">
+    <comment ref="C58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1614,7 +1664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{9B9C876C-574C-4337-948A-B44F687184A1}">
+    <comment ref="C59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1657,7 +1707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{A215F1C9-77FD-43AB-9004-45684C35101B}">
+    <comment ref="C61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1690,7 +1740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{E2E2D1C9-731E-454F-834D-756260754BA2}">
+    <comment ref="C62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1723,7 +1773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{DEA2D2B4-0250-476A-880C-24878AF0486B}">
+    <comment ref="C63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1766,7 +1816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{AAEA3514-B7B5-4C74-AA78-96693CDAB0D2}">
+    <comment ref="C64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1809,7 +1859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{AB74EDFA-9864-40DB-9CFA-07B36B4C9C43}">
+    <comment ref="C65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1842,7 +1892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{6E33DE88-3BE9-4393-B53A-257B4B5E12AB}">
+    <comment ref="C66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1875,7 +1925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{A0BD745A-FD52-4643-A92C-4D17D9E4FB00}">
+    <comment ref="C67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1908,7 +1958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{00CD2307-AB42-41CA-A8F5-23A6A5D95CE4}">
+    <comment ref="C68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1951,7 +2001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{11CD7BEE-AE37-41FF-986E-DE7D094018D8}">
+    <comment ref="C69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1994,7 +2044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{EA40B397-BCBA-4B86-B7FB-10A729BC3F97}">
+    <comment ref="C70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2047,7 +2097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{E900457E-552D-4E14-BADB-0A4303382F56}">
+    <comment ref="C71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2115,7 +2165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="131">
   <si>
     <t>Steps</t>
   </si>
@@ -2482,12 +2532,64 @@
   <si>
     <t xml:space="preserve">Documenting version of data whenever there is modification of training data set </t>
   </si>
+  <si>
+    <t>Since company losing employees during COVID, and HR also focusing on retention, need to come up with a solution that help HR in hiring employees quickly. If not, would have to hire more HR employees or partner firm, that incur cost and hurt profits of the company</t>
+  </si>
+  <si>
+    <t>Reduce hiring cost and time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce resume search, download and match time by almost 50% </t>
+  </si>
+  <si>
+    <t>Suggestion: Lets reduce it and play safe
+and how would we quantify it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Would scrap resumes or profiles, from public job portals 
+&gt; JDs for various post  </t>
+  </si>
+  <si>
+    <t>Identify keywords from the JDs. For now, we will assume the following factors:
+  - Job Titles, like IT analayst, Devops Manager….
+  - IT technologies - JAVA, DEVOPS, DATASCIENTIST,DATABASE
+  - Experience: 1, 2, 3….30 years
+  - Others: Location, Salary Range (Maybe not)</t>
+  </si>
+  <si>
+    <t>Utilize NLP techniques to extract relevant features from resumes (skills, experience, education, etc.)</t>
+  </si>
+  <si>
+    <t>Perform EDA on the collected data</t>
+  </si>
+  <si>
+    <t>Create a structured database of required skill sets from the extracted features.</t>
+  </si>
+  <si>
+    <t>Can check if works fine different portals, different skills, and any other feature that is unforeseen for now</t>
+  </si>
+  <si>
+    <t>- The storage memory required, assuming 10,000 resumes with 1 MB each.
+- The analysis could be made on the system (systems like cloud are not required) : Check</t>
+  </si>
+  <si>
+    <t>Explore various machine learning models suitable for ATS, such as classification models (e.g., Regression, Clustering)</t>
+  </si>
+  <si>
+    <t>Train the selected models on the training dataset using the factors like, skill set, experience, title data…</t>
+  </si>
+  <si>
+    <t>Evaluate models based on accuracy, precision, and aptness of falling in the right cluster</t>
+  </si>
+  <si>
+    <t>Integrate the selected model with highest accuracy and precision in to the HR systems and implement in limited capacity at first</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2546,6 +2648,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2588,7 +2703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2610,6 +2725,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2924,42 +3051,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53966E5B-AA82-9441-962B-C80FE447C321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="37" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.83203125" customWidth="1"/>
-    <col min="10" max="10" width="42.5" customWidth="1"/>
-    <col min="11" max="11" width="49.6640625" customWidth="1"/>
-    <col min="12" max="12" width="37.6640625" customWidth="1"/>
-    <col min="13" max="13" width="42.33203125" customWidth="1"/>
-    <col min="14" max="14" width="40.6640625" customWidth="1"/>
-    <col min="15" max="15" width="42.33203125" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="44.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.81640625" customWidth="1"/>
+    <col min="10" max="10" width="42.453125" customWidth="1"/>
+    <col min="11" max="11" width="49.6328125" customWidth="1"/>
+    <col min="12" max="12" width="37.6328125" customWidth="1"/>
+    <col min="13" max="13" width="42.36328125" customWidth="1"/>
+    <col min="14" max="14" width="40.6328125" customWidth="1"/>
+    <col min="15" max="15" width="42.36328125" customWidth="1"/>
+    <col min="16" max="16" width="35.36328125" customWidth="1"/>
     <col min="17" max="17" width="42" customWidth="1"/>
     <col min="18" max="18" width="32" customWidth="1"/>
     <col min="19" max="19" width="37" customWidth="1"/>
-    <col min="20" max="20" width="48.83203125" customWidth="1"/>
+    <col min="20" max="20" width="48.81640625" customWidth="1"/>
     <col min="21" max="21" width="49" customWidth="1"/>
     <col min="22" max="22" width="53" customWidth="1"/>
     <col min="23" max="23" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2985,7 +3112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="10" t="s">
         <v>3</v>
@@ -3007,7 +3134,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3027,7 +3154,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3047,14 +3174,14 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -3065,11 +3192,14 @@
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="E6" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
@@ -3078,18 +3208,22 @@
       <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="E7" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
@@ -3098,11 +3232,14 @@
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E9" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
@@ -3111,11 +3248,14 @@
       <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="E10" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -3124,18 +3264,20 @@
       <c r="D11" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -3144,8 +3286,9 @@
       <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
@@ -3154,42 +3297,49 @@
       <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="E16" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
@@ -3198,8 +3348,11 @@
       <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -3208,8 +3361,9 @@
       <c r="D20" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
@@ -3218,22 +3372,25 @@
       <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
@@ -3242,8 +3399,11 @@
       <c r="D24" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="E24" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
@@ -3252,8 +3412,9 @@
       <c r="D25" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -3262,15 +3423,17 @@
       <c r="D26" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
@@ -3279,8 +3442,9 @@
       <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
@@ -3289,15 +3453,19 @@
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
@@ -3306,8 +3474,11 @@
       <c r="D31" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E31" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
@@ -3316,15 +3487,17 @@
       <c r="D32" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
@@ -3333,11 +3506,14 @@
       <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E34" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
@@ -3346,32 +3522,38 @@
       <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E35" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
@@ -3380,11 +3562,12 @@
       <c r="D39" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
@@ -3393,11 +3576,12 @@
       <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
@@ -3406,162 +3590,192 @@
       <c r="D41" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="E41" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="E44" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="E54" s="12"/>
       <c r="F54" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="6"/>
+      <c r="E56" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="F56" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="6"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>61</v>
@@ -3570,15 +3784,19 @@
       <c r="D61" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E62" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>63</v>
@@ -3588,56 +3806,56 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>71</v>

--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPBA\FP1\ISBG4FP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit\Desktop\ISB\Classwork\Foundation Project\ISBG4FP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826E87C-5E58-485E-9AAF-5EE95763A3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,13 +31,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sharat</author>
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="1" shapeId="0">
+    <comment ref="E9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>user:</t>
         </r>
@@ -96,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This will depend on ML Success criteria
@@ -104,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="1" shapeId="0">
+    <comment ref="E11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>user:</t>
         </r>
@@ -207,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 View next sheet
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -559,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -645,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -688,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -741,7 +742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -798,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -832,7 +833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -865,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -918,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0">
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -941,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -974,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1007,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0">
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0">
+    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1258,7 +1259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0">
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1301,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0">
+    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1387,31 +1388,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sharat:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0" shapeId="0">
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0">
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1502,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1545,7 +1546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1588,7 +1589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1631,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0">
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1664,7 +1665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1707,7 +1708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0">
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -1740,7 +1741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -1773,7 +1774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0" shapeId="0">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -1816,7 +1817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0">
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -1859,7 +1860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0">
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -1892,7 +1893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -1925,7 +1926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0">
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -1958,7 +1959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -2001,7 +2002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -2044,7 +2045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0">
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -2097,7 +2098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0">
+    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -2165,7 +2166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
   <si>
     <t>Steps</t>
   </si>
@@ -2584,12 +2585,87 @@
   <si>
     <t>Integrate the selected model with highest accuracy and precision in to the HR systems and implement in limited capacity at first</t>
   </si>
+  <si>
+    <t xml:space="preserve">Optimise Recruiting Cost and Improve the Chances of Hiring Candidates who will accept the Job offer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduction in time of HR of Resume shortlistings along with Cost Reduction of hiring platform for Resume Search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Hiring Cost Saved where HR Usually search for the Appropriate Resume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP by Text Analysis and Predictive Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender Bias / Data Breach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git Every set of data will be updated with newer version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Source - Linkedine , Naukri , Data Types,Data Cleaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate Resume Data,Meta Data Like when the last profile updated,Source, Appropriate Labeling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imputing missing values,Cross Checking with Other Portals if possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant to Job Requirement like Payscale,Skillset,Last updated resume date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random profile search to generalise the model fit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing Improper data say payscale vs Years of Exp </t>
+  </si>
+  <si>
+    <t>If Payscale is missing we can impute with mean of numbers by considering the years of exp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how Recent Job changes,certifications,Education etc  </t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1186/s40537-022-00576-5 ,  https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0278237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Analyzing the model is overfit/fit/Underfit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Drift , Handling missing data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear Feature Documentations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross Validation with other portals </t>
+  </si>
+  <si>
+    <t>Linear Regression (Relation ship between Features vs outcome )</t>
+  </si>
+  <si>
+    <t>Split Dataset into 80-20</t>
+  </si>
+  <si>
+    <t>Accuracy of Model</t>
+  </si>
+  <si>
+    <t>Azure Cloud Infrastructure - https://studio.azureml.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Drift as Time passes the Accuracy of model will decrease this can be done on weekly basis by Monitoring the model </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2647,19 +2723,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2723,20 +2786,20 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3051,42 +3114,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="36.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="37" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.6328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.81640625" customWidth="1"/>
-    <col min="10" max="10" width="42.453125" customWidth="1"/>
-    <col min="11" max="11" width="49.6328125" customWidth="1"/>
-    <col min="12" max="12" width="37.6328125" customWidth="1"/>
-    <col min="13" max="13" width="42.36328125" customWidth="1"/>
-    <col min="14" max="14" width="40.6328125" customWidth="1"/>
-    <col min="15" max="15" width="42.36328125" customWidth="1"/>
-    <col min="16" max="16" width="35.36328125" customWidth="1"/>
+    <col min="7" max="7" width="44.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.44140625" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" customWidth="1"/>
+    <col min="12" max="12" width="37.6640625" customWidth="1"/>
+    <col min="13" max="13" width="42.33203125" customWidth="1"/>
+    <col min="14" max="14" width="40.6640625" customWidth="1"/>
+    <col min="15" max="15" width="42.33203125" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" customWidth="1"/>
     <col min="17" max="17" width="42" customWidth="1"/>
     <col min="18" max="18" width="32" customWidth="1"/>
     <col min="19" max="19" width="37" customWidth="1"/>
-    <col min="20" max="20" width="48.81640625" customWidth="1"/>
+    <col min="20" max="20" width="48.77734375" customWidth="1"/>
     <col min="21" max="21" width="49" customWidth="1"/>
     <col min="22" max="22" width="53" customWidth="1"/>
     <col min="23" max="23" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3112,7 +3175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="10" t="s">
         <v>3</v>
@@ -3134,10 +3197,10 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3154,10 +3217,10 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -3174,14 +3237,14 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -3192,14 +3255,17 @@
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
@@ -3208,22 +3274,22 @@
       <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
@@ -3232,14 +3298,17 @@
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>118</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
@@ -3248,14 +3317,17 @@
       <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="15">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -3264,20 +3336,23 @@
       <c r="D11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G11" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -3286,9 +3361,12 @@
       <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="E13" s="11"/>
+      <c r="G13" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
@@ -3297,49 +3375,55 @@
       <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
@@ -3348,11 +3432,14 @@
       <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -3361,9 +3448,12 @@
       <c r="D20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E20" s="11"/>
+      <c r="G20" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
@@ -3372,25 +3462,28 @@
       <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E21" s="11"/>
+      <c r="G21" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
@@ -3399,11 +3492,14 @@
       <c r="D24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G24" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
@@ -3412,9 +3508,12 @@
       <c r="D25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="E25" s="11"/>
+      <c r="G25" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -3423,17 +3522,17 @@
       <c r="D26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
@@ -3442,9 +3541,12 @@
       <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="11"/>
+      <c r="G28" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
@@ -3453,19 +3555,22 @@
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
@@ -3474,11 +3579,14 @@
       <c r="D31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
@@ -3487,17 +3595,17 @@
       <c r="D32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
@@ -3506,14 +3614,17 @@
       <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
@@ -3522,38 +3633,44 @@
       <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E37" s="11"/>
+      <c r="G37" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
@@ -3562,12 +3679,15 @@
       <c r="D39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G39" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
@@ -3576,12 +3696,15 @@
       <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="G40" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
@@ -3590,192 +3713,207 @@
       <c r="D41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>125</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G42" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G43" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="13" t="s">
         <v>126</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G56" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-      <c r="E60" s="12"/>
-    </row>
-    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>61</v>
@@ -3784,19 +3922,25 @@
       <c r="D61" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="E61" s="11"/>
+      <c r="G61" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="6"/>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>63</v>
@@ -3806,56 +3950,59 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G65" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>71</v>

--- a/CRISP_ML.xlsx
+++ b/CRISP_ML.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit\Desktop\ISB\Classwork\Foundation Project\ISBG4FP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826E87C-5E58-485E-9AAF-5EE95763A3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AABBD4-7659-4359-922E-C8C377A6FC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2166,7 +2170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="182">
   <si>
     <t>Steps</t>
   </si>
@@ -2466,21 +2470,10 @@
   </si>
   <si>
     <t>accuracy in Resume categorization</t>
-  </si>
-  <si>
-    <t>Minimize recruitment costs
-Improve hiring efficiency
-Maximize hiring success rate</t>
   </si>
   <si>
     <t>High recruitment cost 
 Inefficient hiring process.</t>
-  </si>
-  <si>
-    <t>Improved hiring efficiency
-Increased hiring success rate
-Improved candidate experience
-Increased employee retention</t>
   </si>
   <si>
     <t>Improved productivity of HRs saving time of hiring
@@ -2532,12 +2525,6 @@
   </si>
   <si>
     <t xml:space="preserve">Documenting version of data whenever there is modification of training data set </t>
-  </si>
-  <si>
-    <t>Since company losing employees during COVID, and HR also focusing on retention, need to come up with a solution that help HR in hiring employees quickly. If not, would have to hire more HR employees or partner firm, that incur cost and hurt profits of the company</t>
-  </si>
-  <si>
-    <t>Reduce hiring cost and time</t>
   </si>
   <si>
     <t xml:space="preserve">Reduce resume search, download and match time by almost 50% </t>
@@ -2659,6 +2646,108 @@
   </si>
   <si>
     <t xml:space="preserve">Data Drift as Time passes the Accuracy of model will decrease this can be done on weekly basis by Monitoring the model </t>
+  </si>
+  <si>
+    <t>Since company losing employees during COVID, and HR also focusing on retention, need to come up with a solution that help HR in hiring employees at minimal cost.Else Company would hav e to incur cost for the HR Department.</t>
+  </si>
+  <si>
+    <t>Minimize hiring cost and time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize recruitment costs and 
+ Maximum success rate  accepting offer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improved hiring efficiency
+Increased hiring success rate
+Improved candidate experience
+Optimal </t>
+  </si>
+  <si>
+    <t>To Avoid Wrong mapping of Profile and Reduce No Turnaround by not Taking Consideration of Salary range in the market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85% Getting Highest Profile Mapping and Predict Right Salary Range and Predicting the Candidates acceptance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80% Candidates Salary within range  and Platform Hiring Cost Saved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDBSCAN Clustering ,NLP by Text Analysis and Predictive Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Data Procurement Should be Gender/Location/Qualification Neutral 
+2) Profile Mapping to the JD Excluding above Points </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robustness - Handle The Outlier 
+Scalability - How many resumes  model can handle
+Explainability - Decision arrived on what paramenters   this has to be documented </t>
+  </si>
+  <si>
+    <t>Corpus maintenaed in Git Repository along with vesion of Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify keywords from the JDs. For now, we will assume the following factors:
+  - Job Titles, like IT analayst, Devops Manager….
+  - IT technologies (Cluster) - JAVA, DEVOPS, DATASCIENTIST,DATABASE
+  - Experience: 1, 2, 3….30 years
+  - Others: Location, Salary Range
+  - Skills </t>
+  </si>
+  <si>
+    <t>job_title,experience,salary,location,job_description,tech_stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid special character in salary,Standard Data Quality rule to applied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter Method </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skitlearn Sampling with 80-20,70-30,75-25 model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random tech stacks for individual. Cutting the profiels which are mapped to Multiple clusters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">removing profiles with less tech stacks, Imputing the salary range with mean of the cluster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Engineering will decided as and when profiles received from Portals.Required imputation done on the JDs which are already scraped  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Format CSV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be taken care as data received from the profiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Corpus Need to Update with newer trends i.e. Data Drift handle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Clustering handle if any arises in the market </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear Feature Documentations and right mapping with cluster. Acceptance criteria based on Feature has to be documented properly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enough Corpusso that any resume provided skills should be mapped properly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clustering and Classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrossValidation Physical where as Model Train 80-20,70-30,75-25 to decide the best fit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring hardware degradation requires regular health checks and upgrades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert mechanism for threshold breach of the CPU an Memory of the processor.Alert Mechanism for Newer Sample Emerges in the system </t>
+  </si>
+  <si>
+    <t>Stay informed about system updates by implementing standard RFC’s , scheduling them strategically to minimize disruptions in the working model.</t>
   </si>
 </sst>
 </file>
@@ -2725,7 +2814,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2735,6 +2824,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2766,7 +2861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2795,11 +2890,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3119,7 +3229,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3176,7 +3286,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
@@ -3198,9 +3310,9 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3218,9 +3330,9 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -3244,7 +3356,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -3255,14 +3367,17 @@
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>116</v>
+      <c r="E6" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
@@ -3275,10 +3390,13 @@
         <v>78</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>153</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -3288,6 +3406,8 @@
       </c>
       <c r="C8" s="6"/>
       <c r="E8" s="11"/>
+      <c r="F8" s="17"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -3299,13 +3419,16 @@
         <v>79</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
@@ -3318,13 +3441,16 @@
         <v>80</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="15">
+        <v>112</v>
+      </c>
+      <c r="G10" s="14">
         <v>0.85</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
@@ -3338,10 +3464,13 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -3351,8 +3480,9 @@
       </c>
       <c r="C12" s="6"/>
       <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -3363,10 +3493,13 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
@@ -3377,19 +3510,25 @@
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="11"/>
+      <c r="H15" s="16" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -3398,10 +3537,11 @@
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
@@ -3409,21 +3549,25 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6"/>
       <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
@@ -3433,13 +3577,16 @@
         <v>84</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -3450,10 +3597,13 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
@@ -3464,26 +3614,31 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="6"/>
       <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
@@ -3493,13 +3648,16 @@
         <v>89</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
@@ -3510,10 +3668,13 @@
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -3523,16 +3684,20 @@
         <v>91</v>
       </c>
       <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="6"/>
       <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
@@ -3543,10 +3708,13 @@
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
@@ -3556,21 +3724,25 @@
         <v>88</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="6"/>
       <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
@@ -3580,13 +3752,16 @@
         <v>92</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
@@ -3596,16 +3771,18 @@
         <v>93</v>
       </c>
       <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6"/>
       <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
@@ -3621,10 +3798,13 @@
         <v>94</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
@@ -3640,18 +3820,22 @@
         <v>94</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>37</v>
@@ -3659,18 +3843,22 @@
       <c r="C37" s="6"/>
       <c r="E37" s="11"/>
       <c r="G37" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="6"/>
       <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
@@ -3681,13 +3869,16 @@
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
@@ -3698,13 +3889,16 @@
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
@@ -3714,13 +3908,16 @@
         <v>97</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
@@ -3728,13 +3925,16 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
@@ -3742,108 +3942,125 @@
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6"/>
       <c r="E45" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6"/>
       <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6"/>
       <c r="E47" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6"/>
       <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6"/>
       <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="6"/>
       <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="6"/>
       <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
@@ -3851,34 +4068,37 @@
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="6"/>
       <c r="E56" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>57</v>
@@ -3886,34 +4106,38 @@
       <c r="C57" s="6"/>
       <c r="E57" s="11"/>
       <c r="F57" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="6"/>
       <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="6"/>
       <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>61</v>
@@ -3924,23 +4148,25 @@
       </c>
       <c r="E61" s="11"/>
       <c r="G61" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="6"/>
       <c r="E62" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>63</v>
@@ -3949,65 +4175,88 @@
       <c r="D63" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="6"/>
       <c r="G65" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="6"/>
+      <c r="G71" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4017,4 +4266,25 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5047F0-B297-4E23-849B-4BBB9B7961BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>